--- a/ocms/src/test/resources/DownloadedFiles/AddressBook (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/AddressBook (2).xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">sample2 delete&lt;12345&gt;,TrialData Recipient&lt;9987288&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">26/04/2020 01:40:35</t>
+    <t xml:space="preserve">27/04/2020 13:05:35</t>
   </si>
   <si>
     <t xml:space="preserve">Bulk Upload2</t>

--- a/ocms/src/test/resources/DownloadedFiles/AddressBook (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/AddressBook (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -34,55 +34,319 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample2 delete&lt;12345&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/03/2020 17:27:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjswhdswy65217821$%^&amp;*(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleData &lt;123467&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/03/2020 15:27:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg45@@@@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/03/2020 12:07:07</t>
+    <t xml:space="preserve">vis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak Garg&lt;9917186286&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\meghna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:29:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twentyRecipientBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing1 Recipient1&lt;9898&gt;,Testing2 Recipient2&lt;9899&gt;,testing3 recipient3&lt;9901&gt;,testing4 recipient4&lt;9902&gt;,testing5 recipient5&lt;9903&gt;,testing6 recipient6&lt;9904&gt;,testing7 recipient7&lt;9905&gt;,testing8 recipient8&lt;9906&gt;,testing9 recipient9&lt;9909&gt;,testing10 recipient10&lt;9910&gt;,testing11 recipient11&lt;9911&gt;,testing12 recipient12&lt;9912&gt;,testing13 recipient13&lt;9913&gt;,testing14 recipient14&lt;9914&gt;,testing15 recipient15&lt;9915&gt;,testing16 recipient16&lt;9916&gt;,testing17 recipient17&lt;9917&gt;,testing18 recipient18&lt;9918&gt;,testing19 recipient19&lt;9919&gt;,testing20 recipient20&lt;9920&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/11/2019 16:26:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirtyReciepientbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing71 recipient71&lt;9971&gt;,testing72 recipient72&lt;9972&gt;,testing73 recipient73&lt;9973&gt;,testing74 recipient74&lt;9974&gt;,testing75 recipient75&lt;9975&gt;,testing76 recipient76&lt;9976&gt;,testing77 recipient77&lt;9977&gt;,testing78 recipient78&lt;9978&gt;,testing79 recipient79&lt;9979&gt;,testing80 recipient80&lt;9980&gt;,testing81 recipient81&lt;9981&gt;,testing82 recipient82&lt;9982&gt;,testing83 recipient83&lt;9983&gt;,testing84 recipient84&lt;9984&gt;,testing85 recipient85&lt;9985&gt;,testing86 recipient86&lt;9986&gt;,testing87 recipient87&lt;9987&gt;,testing88 recipient88&lt;9988&gt;,testing89 recipient89&lt;9989&gt;,testing90 recipient90&lt;9990&gt;,testing91 recipient91&lt;9991&gt;,testing92 recipient92&lt;9992&gt;,testing93 recipient93&lt;9993&gt;,testing94 recipient94&lt;9994&gt;,testing95 recipient95&lt;9995&gt;,testing96 recipient96&lt;9996&gt;,testing97 recipient97&lt;9998&gt;,testing98 recipient98&lt;9827&gt;,testing99 recipient99&lt;9828&gt;,testing100 recipient100&lt;0222&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/11/2019 17:11:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testtwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak Garg&lt;9917186286&gt;,testwe &lt;567890&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:27:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghna  Andrews&lt;654537490&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:28:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testwe &lt;567890&gt;,Palak Garg Palak Garg&lt;9917186286&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:27:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariyam Kasheera&lt;805476829&gt;,Palak Garg&lt;9917186286&gt;,Meghna  Andrews&lt;654537490&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:29:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghna  Andrews&lt;654537490&gt;,testwe &lt;5678990&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:29:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariyam Kasheera&lt;805476829&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/08/2019 14:15:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenrecipientbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing1 Recipient1&lt;9898&gt;,Testing2 Recipient2&lt;9899&gt;,testing3 recipient3&lt;9901&gt;,testing4 recipient4&lt;9902&gt;,testing5 recipient5&lt;9903&gt;,testing6 recipient6&lt;9904&gt;,testing7 recipient7&lt;9905&gt;,testing8 recipient8&lt;9906&gt;,testing9 recipient9&lt;9909&gt;,testing10 recipient10&lt;9910&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/08/2019 17:41:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slkslwskws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/03/2020 12:29:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdewi764r438584#$%^&amp;*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak Garg&lt;9917186286&gt;,testwe uhuhjhj&lt;567890&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2020 11:46:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing88 recipient88&lt;9988&gt;,testing89 recipient89&lt;9989&gt;,testing90 recipient90&lt;9990&gt;,testing91 recipient91&lt;9991&gt;,testing92 recipient92&lt;9992&gt;,testing93 recipient93&lt;9993&gt;,testing94 recipient94&lt;9994&gt;,testing95 recipient95&lt;9995&gt;,testing96 recipient96&lt;9996&gt;,testing97 recipient97&lt;9998&gt;,testing98 recipient98&lt;9827&gt;,testing99 recipient99&lt;9828&gt;,testing100 recipient100&lt;0222&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2020 12:00:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariyam Kasheera&lt;805476829&gt;,Palak Garg&lt;9917186286&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:30:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/07/2019 23:15:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxaddbookj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/08/2019 12:21:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxaddbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/08/2019 12:21:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LevelKing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level King&lt;908765&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\amy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/03/2020 15:05:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdjkjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232213113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak Garg&lt;9917186286&gt;,Meghna  Andrews&lt;654537490&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/03/2020 16:45:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harryadd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harry &lt;763642903&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/08/2019 16:46:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c# Kotlin&lt;909090&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\radhika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/03/2020 16:29:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortyRecipientBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing31 recipient31&lt;9931&gt;,testing32 recipient32&lt;9932&gt;,testing33 recipient33&lt;9933&gt;,testing34 recipient34&lt;9934&gt;,testing35 recipient35&lt;9935&gt;,testing36 recipient36&lt;9936&gt;,testing37 recipient37&lt;9937&gt;,testing38 recipient38&lt;9938&gt;,testing39 recipient39&lt;9939&gt;,testing40 recipient40&lt;9940&gt;,testing41 recipient41&lt;9941&gt;,testing42 recipient42&lt;9942&gt;,testing43 recipient43&lt;9943&gt;,testing44 recipient44&lt;9944&gt;,testing45 recipient45&lt;9945&gt;,testing46 recipient46&lt;9946&gt;,testing47 recipient47&lt;9947&gt;,testing48 recipient48&lt;9948&gt;,testing49 recipient49&lt;9949&gt;,testing50 recipient50&lt;9950&gt;,testing51 recipient51&lt;9951&gt;,testing52 recipient52&lt;9952&gt;,testing53 recipient53&lt;9953&gt;,testing54 recipient54&lt;9954&gt;,testing55 recipient55&lt;9955&gt;,testing56 recipient56&lt;9956&gt;,testing57 recipient57&lt;9957&gt;,testing58 recipient58&lt;9958&gt;,testing59 recipient59&lt;9959&gt;,testing60 recipient60&lt;9960&gt;,testing61 recipient61&lt;9961&gt;,testing62 recipient62&lt;9962&gt;,testing63 recipient63&lt;9963&gt;,testing64 recipient64&lt;9964&gt;,testing65 recipient65&lt;9965&gt;,testing66 recipient66&lt;9966&gt;,testing67 recipient67&lt;9967&gt;,testing68 recipient68&lt;9968&gt;,testing69 recipient69&lt;9969&gt;,testing70 recipient70&lt;9970&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/03/2020 17:12:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiftyrecipientbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing1 Recipient1&lt;9898&gt;,Testing2 Recipient2&lt;9899&gt;,testing3 recipient3&lt;9901&gt;,testing4 recipient4&lt;9902&gt;,testing5 recipient5&lt;9903&gt;,testing6 recipient6&lt;9904&gt;,testing7 recipient7&lt;9905&gt;,testing8 recipient8&lt;9906&gt;,testing9 recipient9&lt;9909&gt;,testing10 recipient10&lt;9910&gt;,testing11 recipient11&lt;9911&gt;,testing12 recipient12&lt;9912&gt;,testing13 recipient13&lt;9913&gt;,testing14 recipient14&lt;9914&gt;,testing15 recipient15&lt;9915&gt;,testing16 recipient16&lt;9916&gt;,testing17 recipient17&lt;9917&gt;,testing18 recipient18&lt;9918&gt;,testing19 recipient19&lt;9919&gt;,testing20 recipient20&lt;9920&gt;,testing21 recipient21&lt;9921&gt;,testing22 recipient22&lt;9922&gt;,testing23 recipient23&lt;9923&gt;,testing24 recipient24&lt;9924&gt;,testing25 recipient25&lt;9925&gt;,testing26 recipient26&lt;9926&gt;,testing27 recipient27&lt;9927&gt;,testing28 recipient28&lt;9928&gt;,testing29 recipient29&lt;9929&gt;,testing30 recipient30&lt;9930&gt;,testing31 recipient31&lt;9931&gt;,testing32 recipient32&lt;9932&gt;,testing33 recipient33&lt;9933&gt;,testing34 recipient34&lt;9934&gt;,testing35 recipient35&lt;9935&gt;,testing36 recipient36&lt;9936&gt;,testing37 recipient37&lt;9937&gt;,testing38 recipient38&lt;9938&gt;,testing39 recipient39&lt;9939&gt;,testing40 recipient40&lt;9940&gt;,testing41 recipient41&lt;9941&gt;,testing42 recipient42&lt;9942&gt;,testing43 recipient43&lt;9943&gt;,testing44 recipient44&lt;9944&gt;,testing45 recipient45&lt;9945&gt;,testing46 recipient46&lt;9946&gt;,testing47 recipient47&lt;9947&gt;,testing48 recipient48&lt;9948&gt;,testing49 recipient49&lt;9949&gt;,testing50 recipient50&lt;9950&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/11/2019 18:03:18</t>
   </si>
   <si>
     <t xml:space="preserve">Fax Address</t>
   </si>
   <si>
-    <t xml:space="preserve">sample2 delete&lt;12345&gt;,TrialData Recipient&lt;9987288&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/04/2020 13:05:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk Upload2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56782</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk Upload1</t>
+    <t xml:space="preserve">Palak Garg&lt;9917186286&gt;,TrialData Recipient&lt;91827&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/05/2020 11:04:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testwe uhuhjhj&lt;567890&gt;,testwe &lt;5678990&gt;,testwe &lt;567890&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 12:31:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15381538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon data&lt;8904517765&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/03/2020 15:02:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhuhdsu527w28@#$%^&amp;*(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/03/2020 10:06:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiggData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigData Java Script&lt;89929229&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\adi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/03/2020 16:17:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy address Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariyam Kasheera&lt;805476829&gt;,testwe &lt;567890&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/08/2019 16:49:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddressBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/08/2019 14:18:09</t>
   </si>
 </sst>
 </file>
@@ -150,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -158,10 +422,10 @@
   </sheetViews>
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="23.714285714285715" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="8.714285714285714" bestFit="1"/>
-    <col min="3" max="3" customWidth="1" width="50.714285714285715" bestFit="1"/>
-    <col min="4" max="4" customWidth="1" width="24.714285714285715" bestFit="1"/>
+    <col min="1" max="1" customWidth="1" width="21.714285714285715" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="9.714285714285714" bestFit="1"/>
+    <col min="3" max="3" customWidth="1" width="1381.7142857142858" bestFit="1"/>
+    <col min="4" max="4" customWidth="1" width="21.714285714285715" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="19.714285714285715" bestFit="1"/>
   </cols>
   <sheetData>
@@ -204,84 +468,492 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/AddressBook (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/AddressBook (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk Upload1</t>
   </si>
   <si>
     <t xml:space="preserve">AddbookRec3</t>
@@ -198,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -371,33 +368,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
